--- a/Rao Q tables/non-invasive only/TableS1 - non-invasives.xlsx
+++ b/Rao Q tables/non-invasive only/TableS1 - non-invasives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\wanang_ants\Rao Q tables\non-invasive only\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B805265-0D81-4D81-B2D7-A184F7470D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{913CC987-65CD-4AC5-A971-6B5A7134FD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="9735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +182,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -231,20 +237,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -267,9 +264,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,10 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -297,21 +287,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,7 +296,26 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -606,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,13 +612,13 @@
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -640,52 +634,52 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="2:12" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -708,7 +702,7 @@
       <c r="G6" s="4">
         <v>0.1927393</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="24">
         <v>-0.88683555999999997</v>
       </c>
       <c r="I6" s="9">
@@ -717,14 +711,14 @@
       <c r="J6" s="4">
         <v>0.52941159999999998</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>-2.132332E-2</v>
       </c>
       <c r="L6" s="3">
         <v>0.56499999999999995</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
@@ -743,7 +737,7 @@
       <c r="G7" s="7">
         <v>0.2075795</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="24">
         <v>4.1332870000000001E-2</v>
       </c>
       <c r="I7" s="9">
@@ -752,198 +746,198 @@
       <c r="J7" s="8">
         <v>0.4888497</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="8">
         <v>-1.5826059400000001</v>
       </c>
       <c r="L7" s="6">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="29">
+        <v>60</v>
+      </c>
+      <c r="E8" s="29">
+        <v>472</v>
+      </c>
+      <c r="F8" s="29">
+        <v>997</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0.18996199999999999</v>
+      </c>
+      <c r="H8" s="31">
+        <v>-0.73850289999999996</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0.51394379999999995</v>
+      </c>
+      <c r="K8" s="30">
+        <v>0.24387110000000001</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="29">
+        <v>29</v>
+      </c>
+      <c r="E9" s="29">
+        <v>380</v>
+      </c>
+      <c r="F9" s="29">
+        <v>469</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.2020882</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0.1428276</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.45452340000000002</v>
+      </c>
+      <c r="K9" s="30">
+        <v>-1.2639803000000001</v>
+      </c>
+      <c r="L9" s="29">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="29">
         <v>80</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E10" s="29">
         <v>472</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F10" s="29">
         <v>662</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G10" s="30">
         <v>0.2112897</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H10" s="30">
         <v>-0.93859139999999996</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I10" s="29">
         <v>0.16700000000000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J10" s="30">
         <v>0.53750799999999999</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K10" s="30">
         <v>-0.69797569999999998</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L10" s="29">
         <v>0.246</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="29">
         <v>42</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E11" s="29">
         <v>380</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F11" s="29">
         <v>379</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G11" s="30">
         <v>0.20535919999999999</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H11" s="30">
         <v>-7.9287620000000003E-2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I11" s="29">
         <v>0.5</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J11" s="30">
         <v>0.4832592</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K11" s="30">
         <v>-0.81988729999999999</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L11" s="29">
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>60</v>
-      </c>
-      <c r="E10" s="10">
-        <v>472</v>
-      </c>
-      <c r="F10" s="10">
-        <v>997</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.18996199999999999</v>
-      </c>
-      <c r="H10" s="6">
-        <v>-0.73850289999999996</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0.51394379999999995</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.24387110000000001</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.65200000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="10">
-        <v>29</v>
-      </c>
-      <c r="E11" s="10">
-        <v>380</v>
-      </c>
-      <c r="F11" s="10">
-        <v>469</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.2020882</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.1428276</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.45452340000000002</v>
-      </c>
-      <c r="K11" s="6">
-        <v>-1.2639803000000001</v>
-      </c>
-      <c r="L11" s="6">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -958,56 +952,56 @@
       <c r="E14" s="3">
         <v>442</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="15">
         <v>382</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="21">
         <v>0.14387359999999999</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="21">
         <v>-0.46631299999999998</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="24">
+      <c r="I14" s="18"/>
+      <c r="J14" s="21">
         <v>0.40822259999999999</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="21">
         <v>8.5535399999999998E-2</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="9">
         <v>2.231579</v>
       </c>
       <c r="E15" s="6">
         <v>314</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="16">
         <v>224</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="22">
         <v>0.14867130000000001</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="25">
         <v>-3.2181649999999999E-2</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="17">
+      <c r="I15" s="19"/>
+      <c r="J15" s="22">
         <v>0.34688869999999999</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="22">
         <v>-0.71300529999999995</v>
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
@@ -1020,25 +1014,25 @@
       <c r="E16" s="6">
         <v>362</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="16">
         <v>284</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="22">
         <v>0.133717</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="22">
         <v>-0.41041309999999998</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="17">
+      <c r="I16" s="19"/>
+      <c r="J16" s="22">
         <v>0.371695</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="22">
         <v>0.20832030000000001</v>
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
@@ -1051,20 +1045,20 @@
       <c r="E17" s="6">
         <v>229</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="16">
         <v>147</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="22">
         <v>0.1355133</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="22">
         <v>-6.6076190000000007E-2</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="25">
+      <c r="I17" s="19"/>
+      <c r="J17" s="26">
         <v>0.30686249999999998</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="22">
         <v>-0.67152440000000002</v>
       </c>
       <c r="L17" s="6"/>
@@ -1082,54 +1076,54 @@
       <c r="E18" s="6">
         <v>324</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="16">
         <v>172</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="22">
         <v>0.13123770000000001</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="22">
         <v>-0.34668680000000002</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="17">
+      <c r="I18" s="19"/>
+      <c r="J18" s="22">
         <v>0.34445559999999997</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="22">
         <v>-0.14737220000000001</v>
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="2:12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>0.99736840000000004</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>239</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="17">
         <v>87</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="23">
         <v>0.1405826</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="23">
         <v>5.4251849999999997E-2</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="26">
+      <c r="I19" s="20"/>
+      <c r="J19" s="23">
         <v>0.32464660000000001</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="23">
         <v>-0.2092128</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="L19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
